--- a/natmiOut/YoungD0/LR-pairs_lrc2p/L1cam-Egfr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/L1cam-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.5811539548796</v>
+        <v>19.72083766666667</v>
       </c>
       <c r="H2">
-        <v>14.5811539548796</v>
+        <v>59.162513</v>
       </c>
       <c r="I2">
-        <v>0.7561913871755285</v>
+        <v>0.8016210077351786</v>
       </c>
       <c r="J2">
-        <v>0.7561913871755285</v>
+        <v>0.8016210077351787</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N2">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O2">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P2">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q2">
-        <v>16.03856656238984</v>
+        <v>25.77723838635111</v>
       </c>
       <c r="R2">
-        <v>16.03856656238984</v>
+        <v>231.99514547716</v>
       </c>
       <c r="S2">
-        <v>0.008196523375926591</v>
+        <v>0.0100704693624907</v>
       </c>
       <c r="T2">
-        <v>0.008196523375926591</v>
+        <v>0.0100704693624907</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.5811539548796</v>
+        <v>19.72083766666667</v>
       </c>
       <c r="H3">
-        <v>14.5811539548796</v>
+        <v>59.162513</v>
       </c>
       <c r="I3">
-        <v>0.7561913871755285</v>
+        <v>0.8016210077351786</v>
       </c>
       <c r="J3">
-        <v>0.7561913871755285</v>
+        <v>0.8016210077351787</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P3">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q3">
-        <v>1167.39969687906</v>
+        <v>1582.128596484527</v>
       </c>
       <c r="R3">
-        <v>1167.39969687906</v>
+        <v>14239.15736836074</v>
       </c>
       <c r="S3">
-        <v>0.5966006293203957</v>
+        <v>0.6180948214706404</v>
       </c>
       <c r="T3">
-        <v>0.5966006293203957</v>
+        <v>0.6180948214706405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.5811539548796</v>
+        <v>19.72083766666667</v>
       </c>
       <c r="H4">
-        <v>14.5811539548796</v>
+        <v>59.162513</v>
       </c>
       <c r="I4">
-        <v>0.7561913871755285</v>
+        <v>0.8016210077351786</v>
       </c>
       <c r="J4">
-        <v>0.7561913871755285</v>
+        <v>0.8016210077351787</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N4">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O4">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P4">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q4">
-        <v>296.2410275054341</v>
+        <v>443.9921520156098</v>
       </c>
       <c r="R4">
-        <v>296.2410275054341</v>
+        <v>3995.929368140489</v>
       </c>
       <c r="S4">
-        <v>0.1513942344792062</v>
+        <v>0.1734557169020475</v>
       </c>
       <c r="T4">
-        <v>0.1513942344792062</v>
+        <v>0.1734557169020475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -717,49 +717,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.70120524963617</v>
+        <v>0.099159</v>
       </c>
       <c r="H5">
-        <v>4.70120524963617</v>
+        <v>0.297477</v>
       </c>
       <c r="I5">
-        <v>0.2438086128244715</v>
+        <v>0.004030657259573097</v>
       </c>
       <c r="J5">
-        <v>0.2438086128244715</v>
+        <v>0.004030657259573097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N5">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O5">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P5">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q5">
-        <v>5.171099184129618</v>
+        <v>0.12961138996</v>
       </c>
       <c r="R5">
-        <v>5.171099184129618</v>
+        <v>1.16650250964</v>
       </c>
       <c r="S5">
-        <v>0.0026426947306716</v>
+        <v>5.063566205420727E-05</v>
       </c>
       <c r="T5">
-        <v>0.0026426947306716</v>
+        <v>5.063566205420728E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.70120524963617</v>
+        <v>0.099159</v>
       </c>
       <c r="H6">
-        <v>4.70120524963617</v>
+        <v>0.297477</v>
       </c>
       <c r="I6">
-        <v>0.2438086128244715</v>
+        <v>0.004030657259573097</v>
       </c>
       <c r="J6">
-        <v>0.2438086128244715</v>
+        <v>0.004030657259573097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P6">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q6">
-        <v>376.3889744511533</v>
+        <v>7.955153434682998</v>
       </c>
       <c r="R6">
-        <v>376.3889744511533</v>
+        <v>71.59638091214698</v>
       </c>
       <c r="S6">
-        <v>0.1923539123979057</v>
+        <v>0.00310786313635159</v>
       </c>
       <c r="T6">
-        <v>0.1923539123979057</v>
+        <v>0.00310786313635159</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.099159</v>
+      </c>
+      <c r="H7">
+        <v>0.297477</v>
+      </c>
+      <c r="I7">
+        <v>0.004030657259573097</v>
+      </c>
+      <c r="J7">
+        <v>0.004030657259573097</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.51385866666667</v>
+      </c>
+      <c r="N7">
+        <v>67.54157600000001</v>
+      </c>
+      <c r="O7">
+        <v>0.2163812016255815</v>
+      </c>
+      <c r="P7">
+        <v>0.2163812016255815</v>
+      </c>
+      <c r="Q7">
+        <v>2.232451711528</v>
+      </c>
+      <c r="R7">
+        <v>20.092065403752</v>
+      </c>
+      <c r="S7">
+        <v>0.0008721584611672998</v>
+      </c>
+      <c r="T7">
+        <v>0.0008721584611673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.781202</v>
+      </c>
+      <c r="H8">
+        <v>14.343606</v>
+      </c>
+      <c r="I8">
+        <v>0.1943483350052483</v>
+      </c>
+      <c r="J8">
+        <v>0.1943483350052483</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.307106666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.92132</v>
+      </c>
+      <c r="O8">
+        <v>0.01256263154946851</v>
+      </c>
+      <c r="P8">
+        <v>0.01256263154946851</v>
+      </c>
+      <c r="Q8">
+        <v>6.249541008880001</v>
+      </c>
+      <c r="R8">
+        <v>56.24586907992001</v>
+      </c>
+      <c r="S8">
+        <v>0.002441526524923607</v>
+      </c>
+      <c r="T8">
+        <v>0.002441526524923607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4.70120524963617</v>
-      </c>
-      <c r="H7">
-        <v>4.70120524963617</v>
-      </c>
-      <c r="I7">
-        <v>0.2438086128244715</v>
-      </c>
-      <c r="J7">
-        <v>0.2438086128244715</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>20.3167066490164</v>
-      </c>
-      <c r="N7">
-        <v>20.3167066490164</v>
-      </c>
-      <c r="O7">
-        <v>0.2002062401751004</v>
-      </c>
-      <c r="P7">
-        <v>0.2002062401751004</v>
-      </c>
-      <c r="Q7">
-        <v>95.51300795367398</v>
-      </c>
-      <c r="R7">
-        <v>95.51300795367398</v>
-      </c>
-      <c r="S7">
-        <v>0.04881200569589422</v>
-      </c>
-      <c r="T7">
-        <v>0.04881200569589422</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.781202</v>
+      </c>
+      <c r="H9">
+        <v>14.343606</v>
+      </c>
+      <c r="I9">
+        <v>0.1943483350052483</v>
+      </c>
+      <c r="J9">
+        <v>0.1943483350052483</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>80.22623699999998</v>
+      </c>
+      <c r="N9">
+        <v>240.678711</v>
+      </c>
+      <c r="O9">
+        <v>0.77105616682495</v>
+      </c>
+      <c r="P9">
+        <v>0.77105616682495</v>
+      </c>
+      <c r="Q9">
+        <v>383.5778447968739</v>
+      </c>
+      <c r="R9">
+        <v>3452.200603171866</v>
+      </c>
+      <c r="S9">
+        <v>0.149853482217958</v>
+      </c>
+      <c r="T9">
+        <v>0.149853482217958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.781202</v>
+      </c>
+      <c r="H10">
+        <v>14.343606</v>
+      </c>
+      <c r="I10">
+        <v>0.1943483350052483</v>
+      </c>
+      <c r="J10">
+        <v>0.1943483350052483</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>22.51385866666667</v>
+      </c>
+      <c r="N10">
+        <v>67.54157600000001</v>
+      </c>
+      <c r="O10">
+        <v>0.2163812016255815</v>
+      </c>
+      <c r="P10">
+        <v>0.2163812016255815</v>
+      </c>
+      <c r="Q10">
+        <v>107.643306084784</v>
+      </c>
+      <c r="R10">
+        <v>968.7897547630562</v>
+      </c>
+      <c r="S10">
+        <v>0.04205332626236668</v>
+      </c>
+      <c r="T10">
+        <v>0.04205332626236669</v>
       </c>
     </row>
   </sheetData>
